--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960982.506051498</v>
+        <v>1959094.924535096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574096.4008609435</v>
+        <v>539297.5288083117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>163.6816504338312</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>46.49527385100491</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>62.34212692452513</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.8161677931376</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>109.4422623037131</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.49138749858555</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>55.32987110366115</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>91.61161474052166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>21.83881304669666</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>161.8175117958954</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.34786245132086</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174111</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.79905274948946</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>187.3609829633145</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>24.07178406386512</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>61.6739999964205</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>52.34452922604904</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>142.7197497247929</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>21.39284400464471</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>17.90786120994142</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1838.152798564255</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1469.190281623843</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1110.924583017093</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1110.924583017093</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>699.9386782274853</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2650.184167936399</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2474.006680250569</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2255.372013222632</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2001.610227860724</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1670.547340517153</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1317.778685247039</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1317.778685247039</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>116.9148271986727</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>116.9148271986727</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>116.9148271986727</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>116.9148271986727</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>173.7413028445388</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>159.8178987831297</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2531.572661847995</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2531.572661847995</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,25 +4826,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
         <v>1978.468598880909</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>599.3997404112772</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>829.3628462796264</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1406.379285971517</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1206.459275887069</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1206.459275887069</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1206.459275887069</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>951.7747876811823</v>
       </c>
       <c r="W13" t="n">
-        <v>1141.996344791358</v>
+        <v>951.7747876811823</v>
       </c>
       <c r="X13" t="n">
-        <v>914.0067938933407</v>
+        <v>723.7852367831649</v>
       </c>
       <c r="Y13" t="n">
-        <v>914.0067938933407</v>
+        <v>723.7852367831649</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.8610847926847</v>
+        <v>260.6691235773519</v>
       </c>
       <c r="C16" t="n">
-        <v>630.9249018647778</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D16" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>481.461702720882</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.5095496229244</v>
+        <v>260.6691235773519</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883056</v>
+        <v>881.7531914306751</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883056</v>
+        <v>712.8170085027682</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883056</v>
+        <v>562.7003690904324</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>562.7003690904324</v>
       </c>
       <c r="F19" t="n">
-        <v>359.169691290395</v>
+        <v>415.8104215925221</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.161297031153</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>795.4768088252662</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>506.0596387883056</v>
+        <v>1109.742742328692</v>
       </c>
       <c r="X19" t="n">
-        <v>506.0596387883056</v>
+        <v>881.7531914306751</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0596387883056</v>
+        <v>881.7531914306751</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706317</v>
+        <v>604.4337416462791</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3977182706317</v>
+        <v>604.4337416462791</v>
       </c>
       <c r="D22" t="n">
-        <v>531.3977182706317</v>
+        <v>454.3171022339434</v>
       </c>
       <c r="E22" t="n">
-        <v>383.4846246882386</v>
+        <v>306.4040086515503</v>
       </c>
       <c r="F22" t="n">
-        <v>383.4846246882386</v>
+        <v>159.5140611536399</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>159.5140611536399</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765185</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706317</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706317</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706317</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706317</v>
+        <v>786.0822064765189</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1180.99237691263</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1850.456138215289</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2370.756759951037</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581961</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581961</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581961</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1301.12275119798</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1077.337335987485</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>788.2086972010436</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>533.5242089951568</v>
+        <v>955.1031435655741</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1070389581961</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581961</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581961</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186626</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186626</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186626</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924325</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>643.8194987924325</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>423.0269196489023</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,49 +6446,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.846668111023</v>
+        <v>565.4200295030877</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644869</v>
+        <v>452.2447118565512</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264619</v>
+        <v>357.8889377255863</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>265.736709424564</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386979</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220513</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598919</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,13 +6689,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,16 +7017,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,13 +7129,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010317</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,25 +7172,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,31 +7564,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.069692924718</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.069692924718</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,16 +7807,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.35273766327113</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>264.6841852898943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.429309302732463</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>81.07318557161038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>261.4382996490879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>99.16201537327647</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>142.4217843995125</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.23982837111564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>2.105225817279706</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>173.3651261629881</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>3.714212921776234</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>72.01937238501053</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>72.30993018443276</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879815.3844098451</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915349.8090268581</v>
+        <v>915349.809026858</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,34 +26326,34 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="J2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651763</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651767</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651766</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758902</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758372</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758411</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.793690575957</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759315</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758824</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758786</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,34 +26522,34 @@
         <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211485</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211487</v>
+        <v>291232.8889211485</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440527</v>
+        <v>-129246.2905700251</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328434</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328433</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328433</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328434</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402506</v>
+        <v>219490.5267142783</v>
       </c>
       <c r="K6" t="n">
-        <v>348784.4416437469</v>
+        <v>348765.9479058126</v>
       </c>
       <c r="L6" t="n">
-        <v>381886.5126123881</v>
+        <v>381886.5126123878</v>
       </c>
       <c r="M6" t="n">
         <v>257428.4041794175</v>
@@ -26558,10 +26558,10 @@
         <v>392229.4194132549</v>
       </c>
       <c r="O6" t="n">
-        <v>392229.4194132548</v>
+        <v>392229.4194132549</v>
       </c>
       <c r="P6" t="n">
-        <v>348066.8141104091</v>
+        <v>348066.8141104092</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>250.1025195869638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.9831287238068</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>104.9676753345258</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>128.5619974367659</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.1066049712196</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64.97345050525846</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>116.1240855196268</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>111.9799311553898</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>19.9779425464199</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>212.6301886270622</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>131.4209907335605</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>353.0329386354459</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,13 +32792,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,16 +32807,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>174.5375503176486</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>64.61606107314776</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>64.61606107314782</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>353.0329386354459</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>147.8809216101172</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>225.9373985850584</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>339.2539866652818</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>479.4216529937808</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>585.3189041590309</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>244.6330639674762</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>296.9020265967328</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>296.9020265967328</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>585.3189041590309</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>380.1668871337022</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>458.2233641086434</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
